--- a/data/strains.xlsx
+++ b/data/strains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/GDrive/science/manuscripts/2020_nitrate_reductase_enzyme_effects/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC2ACC-6E3B-0C41-9842-7B789E2E8876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B706463-3090-824E-AA80-59CBDC0A6805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="5840" windowWidth="28220" windowHeight="18460" xr2:uid="{64D33F49-F189-1E41-AAD9-D86FFE5B0C5C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>strain_id</t>
   </si>
@@ -59,9 +59,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>aromaticum strain EbN1</t>
-  </si>
-  <si>
     <t>bataviensis</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>aeruginosa ΔnarG</t>
   </si>
   <si>
-    <t>stutzeri</t>
-  </si>
-  <si>
     <t>sphaeroides</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Rhodobacter</t>
   </si>
   <si>
-    <t>species &amp; strain</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
@@ -168,6 +156,21 @@
   </si>
   <si>
     <t>napA</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>aromaticum</t>
   </si>
 </sst>
 </file>
@@ -528,291 +531,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52006F6-8E59-CC42-85FB-F866B2B0F53B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="str">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
         <f>MID(B2, 1, 1) &amp; ". " &amp; C2</f>
-        <v>A. aromaticum strain EbN1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>A. aromaticum</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">MID(B3, 1, 1) &amp; ". " &amp; C3</f>
+        <v>16</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E14" si="0">MID(B3, 1, 1) &amp; ". " &amp; C3</f>
         <v>B. bataviensis</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="str">
+        <v>17</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>B. vireti</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="str">
+        <v>18</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>D. desulfuricans</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="str">
+        <v>19</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>P. chlororaphis</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="str">
+        <v>20</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>P. denitrificans</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>P. aeruginosa WT</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>P. aeruginosa ΔnapA</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>P. aeruginosa WT</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>P. aeruginosa ΔnapA</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>P. aeruginosa ΔnarG</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>P. stutzeri</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>R. sphaeroides</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>R. sphaeroides</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>S. loihica</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>S. loihica</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>S. gotlandica</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>S. gotlandica</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="str">
+        <v>27</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>T. aromatica</v>
       </c>
-      <c r="E15" t="s">
-        <v>43</v>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
